--- a/biology/Botanique/Jean-Charles_Chedeau/Jean-Charles_Chedeau.xlsx
+++ b/biology/Botanique/Jean-Charles_Chedeau/Jean-Charles_Chedeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Charles Chedeau (né le 25 avril 1825 à Issoudun et mort le 11 avril 1906 à Mayenne) est un botaniste français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fit des études dans sa ville natale, étudia la médecine qu'il laissa pour le droit. Il prit une étude d'avoué à Mayenne en 1855 et la garda jusqu'en 1892. À partir de 1884, il est conseiller municipal, adjoint, membre des administrations des Hospices, du bureau de bienfaisance, de la Caisse d'épargne, de l'asile de la Roche-Gandon. Secrétaire, puis président[1] de la Société d'archéologie de la Mayenne, il est l'auteur d'une Communication sur les découvertes de monnaie dans le département de la Mayenne (4 juillet 1878).De 1865 à 1870 il réalise des fouilles sur le site archéologique de Jublains. Il est l'auteur avec Charles-Marie de Sarcus de communications dans les revues archéologiques.
-Botaniste, il herborisa dans la région en compagnie de l'abbé Hachet, curé d'Hardanges, puis professeur au Collège de Mayenne ; du docteur Paul-Alphonse Reverchon (1833-1907), du pharmacien Paul Jouannault, et de Julien-Jacques Rousseau. Ses notes ont malheureusement disparu. Son herbier riche en plantes rares, fut cédé à René Courcelle, dentiste à Mayenne. Il est désormais conservé au Musée des Sciences de Laval[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fit des études dans sa ville natale, étudia la médecine qu'il laissa pour le droit. Il prit une étude d'avoué à Mayenne en 1855 et la garda jusqu'en 1892. À partir de 1884, il est conseiller municipal, adjoint, membre des administrations des Hospices, du bureau de bienfaisance, de la Caisse d'épargne, de l'asile de la Roche-Gandon. Secrétaire, puis président de la Société d'archéologie de la Mayenne, il est l'auteur d'une Communication sur les découvertes de monnaie dans le département de la Mayenne (4 juillet 1878).De 1865 à 1870 il réalise des fouilles sur le site archéologique de Jublains. Il est l'auteur avec Charles-Marie de Sarcus de communications dans les revues archéologiques.
+Botaniste, il herborisa dans la région en compagnie de l'abbé Hachet, curé d'Hardanges, puis professeur au Collège de Mayenne ; du docteur Paul-Alphonse Reverchon (1833-1907), du pharmacien Paul Jouannault, et de Julien-Jacques Rousseau. Ses notes ont malheureusement disparu. Son herbier riche en plantes rares, fut cédé à René Courcelle, dentiste à Mayenne. Il est désormais conservé au Musée des Sciences de Laval.
 </t>
         </is>
       </c>
